--- a/projects.xlsx
+++ b/projects.xlsx
@@ -390,98 +390,197 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:G2"/>
+      <selection activeCell="G5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="13.77734375" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1008919333</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ФИО Преподавателя</t>
+        </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Проверка</t>
+          <t>Название проекта</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>не знаю</t>
+          <t>Фамилия студента</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>Имя студента</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Группа студента</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Статус</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1008919333</t>
+          <t>Винаева Дарья</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ничего не хочу</t>
+          <t>гойда</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>malo</t>
+          <t>Нетеса</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>halo</t>
+          <t>Роман</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Группа не указана</t>
+          <t>3433</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Одобрено</t>
+          <t>активен</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Не оценено</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1008919333</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Винаева Дарья</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>овсдьябым</t>
+          <t>гойда 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>лавьпдвбывэ</t>
+          <t>Нетеса</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>Роман</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3433</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>завершен</t>
+          <t>в разработке</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>не оценено</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Винаева Дарья</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>гойда 2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Макарова</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4317</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>в разработке</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>не оценено</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Винаева Дарья</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>проверка</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>активен</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>не оценено</t>
         </is>
       </c>
     </row>
